--- a/case/用例.xlsx
+++ b/case/用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>case编号</t>
   </si>
@@ -64,64 +64,61 @@
     <t>获取广告位</t>
   </si>
   <si>
-    <t>/api3/getbanneradvertver2</t>
+    <t>/op/starTalk/list</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>case_002</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>/op/starTalk</t>
+  </si>
+  <si>
+    <t>case_001&gt;data[0].id</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"id":"1"}</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>errcode</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>case_003</t>
+  </si>
+  <si>
+    <t>新课程</t>
+  </si>
+  <si>
     <t>case_001&gt;data.banner.[0].id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"username":"111111"}</t>
-  </si>
-  <si>
-    <t>mec</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684951}</t>
-  </si>
-  <si>
-    <t>case_002</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>/api3/beta4</t>
-  </si>
-  <si>
-    <t>{"username":"111112"}</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>errcode</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>case_003</t>
-  </si>
-  <si>
-    <t>新课程</t>
-  </si>
-  <si>
-    <t>/api3/newcourseskill</t>
-  </si>
-  <si>
-    <t>{"username":"111113","coursename":"test","orderid":"123","id":"123"}</t>
   </si>
   <si>
     <t>write</t>
@@ -183,12 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,54 +194,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,34 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,29 +332,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -358,31 +347,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,102 +521,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,12 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +552,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +595,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,32 +622,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,149 +646,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,14 +796,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1138,7 +1124,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1147,7 +1133,7 @@
     <col min="2" max="2" width="19.5666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.85" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.2833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.925" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.925" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.2166666666667" style="1" customWidth="1"/>
@@ -1214,17 +1200,15 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -1233,224 +1217,220 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N2"/>
     </row>
     <row r="3" ht="29.15" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
       </c>
       <c r="N3"/>
     </row>
-    <row r="4" ht="75.65" customHeight="1" spans="1:13">
+    <row r="4" ht="29.15" customHeight="1" spans="1:14">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4"/>
+    </row>
+    <row r="5" ht="29.15" customHeight="1" spans="1:14">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="42" customHeight="1" spans="1:14">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:14">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:14">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:14">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N8"/>
     </row>
@@ -1458,9 +1438,6 @@
       <c r="N10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/api3/getbanneradvertver2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/case/用例.xlsx
+++ b/case/用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>case编号</t>
   </si>
@@ -28,7 +28,7 @@
     <t>是否执行</t>
   </si>
   <si>
-    <t>前置条件（规则：依赖那条用例的返回值，以及提取的格式）</t>
+    <t>前置条件（规则：依赖那条用例的返回值、提取的格式以及返回的key）</t>
   </si>
   <si>
     <t>依赖key(当前接口的参数)</t>
@@ -79,7 +79,38 @@
     <t>{}</t>
   </si>
   <si>
-    <t>mec</t>
+    <t>[data[0].username,data[0].username]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+     "success": true,
+    "message": "操作成功",
+    "resultOBJ": {
+        "managementDataList": [
+            {
+                "_id": "kun01&amp;domain",
+                "ip": "kun01",
+                "serivce": "domain",
+                "magnification": 0,
+                "country": null,
+                "province": null,
+                "city": null,
+                "last_update_time": "2020-06-24 16:46:23"
+            },
+            {
+                "_id": "kun01&amp;qqqqqq",
+                "ip": "kun01",
+                "serivce": "qqqqqq",
+                "magnification": 50,
+                "country": null,
+                "province": "北京",
+                "city": null,
+                "last_update_time": "2020-06-24 16:47:27"
+            }
+        ],
+        "totalPage": 1
+    }
+  }</t>
   </si>
   <si>
     <t>case_002</t>
@@ -91,7 +122,10 @@
     <t>/op/starTalk</t>
   </si>
   <si>
-    <t>case_001&gt;data[0].id</t>
+    <t>["case_001&gt;resultOBJ.managementDataList[0].ip", "case_002&gt;password"]</t>
+  </si>
+  <si>
+    <t>["username","password"]</t>
   </si>
   <si>
     <t>post</t>
@@ -112,13 +146,19 @@
     <t>失败</t>
   </si>
   <si>
+    <t>{"password":"111115"}</t>
+  </si>
+  <si>
     <t>case_003</t>
   </si>
   <si>
     <t>新课程</t>
   </si>
   <si>
-    <t>case_001&gt;data.banner.[0].id</t>
+    <t>["case_002&gt;password"]</t>
+  </si>
+  <si>
+    <t>["id"]</t>
   </si>
   <si>
     <t>write</t>
@@ -180,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -194,6 +234,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -201,85 +256,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,14 +318,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -317,6 +327,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -332,7 +350,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,12 +387,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,13 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,133 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,32 +581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +605,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -597,9 +631,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,13 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -658,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1134,11 +1174,11 @@
     <col min="3" max="3" width="20.85" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.2833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.925" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.2166666666667" style="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.5666666666667" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.3333333333333" style="1" customWidth="1"/>
   </cols>
@@ -1219,96 +1259,100 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="N2"/>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" ht="29.15" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3"/>
+        <v>33</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" ht="29.15" customHeight="1" spans="1:14">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" ht="29.15" customHeight="1" spans="1:14">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1316,121 +1360,121 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:14">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:14">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:14">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N8"/>
     </row>

--- a/case/用例.xlsx
+++ b/case/用例.xlsx
@@ -28,10 +28,10 @@
     <t>是否执行</t>
   </si>
   <si>
-    <t>前置条件（规则：依赖那条用例的返回值、提取的格式以及返回的key）</t>
-  </si>
-  <si>
-    <t>依赖key(当前接口的参数)</t>
+    <t>前置条件（规则：依赖那条用例的返回值、提取的格式,需要是list的形式存放）</t>
+  </si>
+  <si>
+    <t>依赖key，存放在list中，多个key时按前面提取规则顺序存入</t>
   </si>
   <si>
     <t>method</t>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
